--- a/GATEWAY/A1#111SIEMENSHEALT/SIEMENS_HEALTHCARE/TDSYNERGY_SIEMENS/V.0.0.1/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/A1#111SIEMENSHEALT/SIEMENS_HEALTHCARE/TDSYNERGY_SIEMENS/V.0.0.1/accreditamento-checklist_V4.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progetti\FSE\it-fse-accreditamento\GATEWAY\A1#111SIEMENSHEALT\SIEMENS_HEALTHCARE\TDSYNERGY_SIEMENS\V.0.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A8CDC-47C3-4C5D-A1E3-58B766664FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F22DC00-2765-46BA-8013-4F24C2B1D4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="444" yWindow="972" windowWidth="22308" windowHeight="10332" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="395">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -2057,25 +2057,22 @@
     <t>3e4de319cbaf7741</t>
   </si>
   <si>
-    <t>2023-04-21T12:05:02+0200</t>
-  </si>
-  <si>
-    <t>823e3dbc60f8ad17</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.100.4.4.2b7a3edae1c61bb5f44d41f28aed12180d823df7cbe2b80bbef91a1822ab6e86.76b7f13be4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-04-21T13:18:00+0200</t>
-  </si>
-  <si>
-    <t>aee93709232488d7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.100.4.4.2b7a3edae1c61bb5f44d41f28aed12180d823df7cbe2b80bbef91a1822ab6e86.c51e939ae2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>L'applicazione LIS Siemens gestisce gli esami con prelievi ripetuti con una sola data ora prelievo. Il LIS esegue infatti un solo step di checkin per processare gli esami con prelievi ripetuti all'interno della stessa richiesta. Per cui le sezioni entryRelationship/act relative ai prelievi non sono state inserite nel CDA.</t>
+    <t>3c7ce1cca6ccc636</t>
+  </si>
+  <si>
+    <t>2023-04-24T14:26:47+0200</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.100.4.4.4063042906018a84cc13372de85ab14f9951f657fe733702e5747dde09b6a927.c6f75a526c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-24T14:46:38+0200</t>
+  </si>
+  <si>
+    <t>4a7695dfd87c0d0e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.100.4.4.2b7a3edae1c61bb5f44d41f28aed12180d823df7cbe2b80bbef91a1822ab6e86.4153ff2e91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4195,10 +4192,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4564,23 +4561,21 @@
         <v>32</v>
       </c>
       <c r="F12" s="37">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J12" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="39" t="s">
-        <v>395</v>
-      </c>
+      <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
@@ -4610,16 +4605,16 @@
         <v>34</v>
       </c>
       <c r="F13" s="37">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>84</v>
@@ -25958,14 +25953,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26200,27 +26193,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26245,9 +26231,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111SIEMENSHEALT/SIEMENS_HEALTHCARE/TDSYNERGY_SIEMENS/V.0.0.1/accreditamento-checklist_V4.2.xlsx
+++ b/GATEWAY/A1#111SIEMENSHEALT/SIEMENS_HEALTHCARE/TDSYNERGY_SIEMENS/V.0.0.1/accreditamento-checklist_V4.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progetti\FSE\it-fse-accreditamento\GATEWAY\A1#111SIEMENSHEALT\SIEMENS_HEALTHCARE\TDSYNERGY_SIEMENS\V.0.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F22DC00-2765-46BA-8013-4F24C2B1D4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03D96D8-3453-4D3B-9EF2-CA8D5F483D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="972" windowWidth="22308" windowHeight="10332" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="394">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1948,9 +1948,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>Scarto del referto</t>
-  </si>
-  <si>
     <t>claim sub omesso</t>
   </si>
   <si>
@@ -1969,18 +1966,6 @@
     <t>L'applicazione gestisce solo il caso "N-Normale"</t>
   </si>
   <si>
-    <t>2023-02-24T10:31:15+0100</t>
-  </si>
-  <si>
-    <t>1ec2d53e1bb1ebb9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.100.4.4.5de25c8b7827b5b9a02f8bbfb864b4dc98d42284633a8a1ff2a4b759cbda55de.44087231a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>La validazione ha comunque dato esito positivo anche se il tag city è valorizzato "&lt;city nullFlavor="UNK" /&gt;"</t>
-  </si>
-  <si>
     <t>L'applicazione non procede nella generazione del referto CDA in caso di Nome del paziente mancante. In questo caso il referto viene scartato prima della validazione</t>
   </si>
   <si>
@@ -1990,28 +1975,9 @@
     <t>L'applicazione gestisce solo i casi "R-Normale" e "UR-Urgente". Non solo previste ulteriori casistiche</t>
   </si>
   <si>
-    <t>2023-02-24T12:35:37+0100</t>
-  </si>
-  <si>
-    <t>1b481d345cde0a65</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.100.4.4.868ee59d22b8a8301b627c648dba59fd25876f055475b90da2eb1b1762c04c9e.1b966aaa51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;/inFulfillmentOf&gt;</t>
   </si>
   <si>
-    <t>Il validatore risponde 201 anche se il tag è valorizzato nel seguente modo: &lt;inFulfillmentOf typeCode="FLFS"&gt;
-    &lt;order classCode="ACT" moodCode="RQO"&gt;
-      &lt;id nullFlavor="NAV" /&gt;
-    &lt;/order&gt;
-  &lt;/inFulfillmentOf&gt;</t>
-  </si>
-  <si>
-    <t>In realtà la risposta del validatore è 201. Contiene alcuni warning ma non risulta una causa di scarto</t>
-  </si>
-  <si>
     <t>2023-02-24T14:21:19+0100</t>
   </si>
   <si>
@@ -2024,24 +1990,9 @@
     <t>L'applicativo non rende possibile generare elementi "code" prive del relativo codice. Il Code utilizzato è lo stesso codice interno del gestionale, per cui è un campo obbligatorio.</t>
   </si>
   <si>
-    <t>2023-02-27T10:00:39+0100</t>
-  </si>
-  <si>
-    <t>3e3e5107b8925d9b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.100.4.4.5ac731c945b0bd04b71f05a559857083aea3ee3069a7376ce03fa3fb1d3b0bf0.82d2fc8a31^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>E' possibile simulare un codice fiscale più corto ma non minuscolo perché su quel campo il gestionale LIS effettua l'uppercase automatico</t>
-  </si>
-  <si>
     <t>SIEMENS HEALTHCARE</t>
   </si>
   <si>
-    <t>La chiamata al servizio di validazione ha comunque dato esito positivo anche se il tag city è valorizzato "&lt;city nullFlavor="UNK" /&gt;". L'applicazione avrebbe scartato il referto a fronte di una risposta di errore (che non sia un timeout) da parte del servizio di validazione.</t>
-  </si>
-  <si>
     <t>2023-03-02T12:40:27+0100</t>
   </si>
   <si>
@@ -2073,6 +2024,48 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.100.4.4.2b7a3edae1c61bb5f44d41f28aed12180d823df7cbe2b80bbef91a1822ab6e86.4153ff2e91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-03T10:50:24+0200</t>
+  </si>
+  <si>
+    <t>8240332d9480df0d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.100.4.4.67979cffd6a3c1db6d49cdcec1daec10ced2ad9dacffa9cffd62850fe4bfa2f4.c7f183bc54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-03T11:03:54+0200</t>
+  </si>
+  <si>
+    <t>d6fe3968d2a93931</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.100.4.4.6babe296651140b9d9b4d44e1360333ee82868636d442a67e1b9bd7645a88057.51607d36bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Il modulo di validazione traccia l'evento di errore e si arresta. E' necessario l'intervento del supporto applicativo per effettuare la correzione dei dati necessari alla generazione del token e riattivare l'applicativo. Il referto viene riprocessato alla riattivazione dell'applicativo.</t>
+  </si>
+  <si>
+    <t>Il file referto viene spostato in una cartella contenente i file in errore. L'errore viene tracciato nel file di LOG. L'operatore visualizza e consulta la traccia di errore e provvede alla correzione nel LIS del dato mancante. Per riprocessare il referto effettua la ristampa del referto che genera il nuovo file che verrà automaticamente reinviato in validazione al GTW.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il file referto viene spostato in una cartella contenente i file in errore. L'errore viene tracciato nel file di LOG. L'operatore visualizza e consulta la traccia di errore e provvede alla correzione nel LIS della corretta configurazione della codifica LOINC associata alla specialità di Laboratorio. Per riprocessare il referto effettua la ristampa del referto che genera il nuovo file che verrà automaticamente reinviato in validazione al GTW.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il file referto viene spostato in una cartella contenente i file in errore. L'errore viene tracciato nel file di LOG. L'operatore visualizza e consulta la traccia di errore e provvede alla correzione nel LIS della corretta configurazione della tipologia del campione. Per riprocessare il referto effettua la ristampa del referto che genera il nuovo file che verrà automaticamente reinviato in validazione al GTW.  </t>
+  </si>
+  <si>
+    <t>Il file referto viene spostato in una cartella contenente i file in errore. L'errore viene tracciato nel file di LOG. L'operatore visualizza e consulta la traccia di errore e provvede alla correzione nel LIS del Codice Fiscale. Per riprocessare il referto effettua la ristampa del referto che genera il nuovo file che verrà automaticamente reinviato in validazione al GTW.</t>
+  </si>
+  <si>
+    <t>2023-05-03T12:48:36+0200</t>
+  </si>
+  <si>
+    <t>16d96817856784b2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.100.4.4.5ac731c945b0bd04b71f05a559857083aea3ee3069a7376ce03fa3fb1d3b0bf0.2f5ce4415a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2701,6 +2694,10 @@
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -4192,10 +4189,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4241,14 +4238,14 @@
       <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="51"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -4266,14 +4263,14 @@
       <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="51"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -4291,12 +4288,12 @@
       <c r="T3" s="27"/>
     </row>
     <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="29"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -4315,12 +4312,12 @@
       <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -4338,8 +4335,8 @@
       <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="30"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -4564,13 +4561,13 @@
         <v>45040</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J12" s="39" t="s">
         <v>84</v>
@@ -4608,13 +4605,13 @@
         <v>45040</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>84</v>
@@ -5355,7 +5352,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="34">
         <v>28</v>
       </c>
@@ -5398,12 +5395,12 @@
         <v>84</v>
       </c>
       <c r="P35" s="39" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="Q35" s="39"/>
       <c r="R35" s="42"/>
       <c r="S35" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T35" s="44" t="s">
         <v>330</v>
@@ -5579,7 +5576,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="34">
         <v>36</v>
       </c>
@@ -5599,10 +5596,10 @@
         <v>44987</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="I41" s="38" t="s">
         <v>353</v>
@@ -5622,12 +5619,12 @@
         <v>84</v>
       </c>
       <c r="P41" s="39" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="Q41" s="39"/>
       <c r="R41" s="42"/>
       <c r="S41" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T41" s="44" t="s">
         <v>330</v>
@@ -5830,7 +5827,7 @@
       <c r="N47" s="39"/>
       <c r="O47" s="39"/>
       <c r="P47" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q47" s="39"/>
       <c r="R47" s="42"/>
@@ -6043,7 +6040,7 @@
         <v>321</v>
       </c>
       <c r="K53" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L53" s="39" t="s">
         <v>84</v>
@@ -6056,7 +6053,7 @@
         <v>84</v>
       </c>
       <c r="P53" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q53" s="39"/>
       <c r="R53" s="42"/>
@@ -6065,7 +6062,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="34">
         <v>53</v>
       </c>
@@ -6082,21 +6079,21 @@
         <v>117</v>
       </c>
       <c r="F54" s="37">
-        <v>44984</v>
+        <v>45049</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="J54" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K54" s="39"/>
+      <c r="K54" s="47"/>
       <c r="L54" s="39" t="s">
         <v>84</v>
       </c>
@@ -6108,13 +6105,11 @@
         <v>84</v>
       </c>
       <c r="P54" s="39" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="Q54" s="39"/>
       <c r="R54" s="42"/>
-      <c r="S54" s="40" t="s">
-        <v>381</v>
-      </c>
+      <c r="S54" s="40"/>
       <c r="T54" s="44" t="s">
         <v>330</v>
       </c>
@@ -6143,7 +6138,7 @@
         <v>321</v>
       </c>
       <c r="K55" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L55" s="39"/>
       <c r="M55" s="39"/>
@@ -6157,7 +6152,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="34">
         <v>55</v>
       </c>
@@ -6174,16 +6169,16 @@
         <v>121</v>
       </c>
       <c r="F56" s="37">
-        <v>44981</v>
+        <v>45049</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="J56" s="39" t="s">
         <v>84</v>
@@ -6200,13 +6195,11 @@
         <v>84</v>
       </c>
       <c r="P56" s="39" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q56" s="39"/>
       <c r="R56" s="42"/>
-      <c r="S56" s="40" t="s">
-        <v>364</v>
-      </c>
+      <c r="S56" s="40"/>
       <c r="T56" s="44" t="s">
         <v>330</v>
       </c>
@@ -6235,14 +6228,14 @@
         <v>321</v>
       </c>
       <c r="K57" s="39" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L57" s="39"/>
       <c r="M57" s="39"/>
       <c r="N57" s="39"/>
       <c r="O57" s="39"/>
       <c r="P57" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q57" s="39"/>
       <c r="R57" s="42"/>
@@ -6275,7 +6268,7 @@
         <v>321</v>
       </c>
       <c r="K58" s="39" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L58" s="39"/>
       <c r="M58" s="39"/>
@@ -6313,7 +6306,7 @@
         <v>321</v>
       </c>
       <c r="K59" s="39" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L59" s="39"/>
       <c r="M59" s="39"/>
@@ -6327,7 +6320,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="331.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="34">
         <v>59</v>
       </c>
@@ -6344,43 +6337,41 @@
         <v>129</v>
       </c>
       <c r="F60" s="37">
-        <v>44981</v>
+        <v>45049</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K60" s="39"/>
       <c r="L60" s="39" t="s">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>321</v>
       </c>
       <c r="O60" s="39" t="s">
-        <v>321</v>
+        <v>84</v>
       </c>
       <c r="P60" s="39" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="Q60" s="39"/>
       <c r="R60" s="42"/>
-      <c r="S60" s="40" t="s">
-        <v>372</v>
-      </c>
+      <c r="S60" s="40"/>
       <c r="T60" s="44" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="34">
         <v>60</v>
       </c>
@@ -6400,13 +6391,13 @@
         <v>44987</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="J61" s="39" t="s">
         <v>84</v>
@@ -6423,7 +6414,7 @@
         <v>84</v>
       </c>
       <c r="P61" s="39" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="Q61" s="39"/>
       <c r="R61" s="42"/>
@@ -6432,7 +6423,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="34">
         <v>61</v>
       </c>
@@ -6452,13 +6443,13 @@
         <v>44981</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="J62" s="39" t="s">
         <v>84</v>
@@ -6475,7 +6466,7 @@
         <v>84</v>
       </c>
       <c r="P62" s="39" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="Q62" s="39"/>
       <c r="R62" s="42"/>
@@ -6508,7 +6499,7 @@
         <v>321</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L63" s="39"/>
       <c r="M63" s="39"/>
@@ -6552,7 +6543,7 @@
       <c r="Q64" s="39"/>
       <c r="R64" s="42"/>
       <c r="S64" s="40" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="T64" s="44" t="s">
         <v>330</v>
@@ -25953,12 +25944,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26193,20 +26186,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26231,18 +26231,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
